--- a/biology/Botanique/Angraecopsis_cryptantha/Angraecopsis_cryptantha.xlsx
+++ b/biology/Botanique/Angraecopsis_cryptantha/Angraecopsis_cryptantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angraecopsis cryptantha P.J.Cribb est une espèce d'orchidées du genre Angraecopsis, endémique du Cameroun. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe épiphyte dont la floraison se déroule au mois d'octobre. Les fleurs sont de couleur jaune. La tige de la plante mesure de 3 à 5 cm de long. Les feuilles sont sublancéolées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe épiphyte dont la floraison se déroule au mois d'octobre. Les fleurs sont de couleur jaune. La tige de la plante mesure de 3 à 5 cm de long. Les feuilles sont sublancéolées.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se trouve dans les forêts de montagnes, brumeuses, dominées par Agauria salicifolia et Schefflera sur une ancienne coulée de lave, adjacente à des zones de prairie (1 900-2 000 m d'altitude[3]).
-Très rare, l'espèce est endémique du Cameroun où elle a été observée sur un seul site dans la Région du Sud-Ouest : au mont Cameroun, au bord de la rivière Likombe (Mann's Spring[4]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve dans les forêts de montagnes, brumeuses, dominées par Agauria salicifolia et Schefflera sur une ancienne coulée de lave, adjacente à des zones de prairie (1 900-2 000 m d'altitude).
+Très rare, l'espèce est endémique du Cameroun où elle a été observée sur un seul site dans la Région du Sud-Ouest : au mont Cameroun, au bord de la rivière Likombe (Mann's Spring).
 </t>
         </is>
       </c>
